--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/17/word_level_predictions_17.xlsx
@@ -2790,470 +2790,470 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -9758,572 +9758,572 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>14</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>3</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>14</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>4</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>14</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>5</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>14</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>6</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>14</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>7</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>14</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>8</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>14</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>9</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" t="n">
         <v>14</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" t="n">
         <v>10</v>
       </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" t="n">
         <v>14</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" t="n">
         <v>11</v>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>14</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" t="n">
         <v>12</v>
       </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>14</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" t="n">
         <v>13</v>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11526,312 +11526,312 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>18</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" s="2" t="inlineStr">
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>18</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>18</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>2</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>18</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>3</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>18</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>4</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>18</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>5</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F219" s="2" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>18</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>7</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>18</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>8</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>18</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>9</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>18</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>10</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>18</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>11</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12566,156 +12566,156 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>19</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>19</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>19</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/17/word_level_predictions_17.xlsx
@@ -2790,470 +2790,470 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>8</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" t="n">
         <v>3</v>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" t="n">
         <v>9</v>
       </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>10</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" t="n">
         <v>11</v>
       </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>12</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>13</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>14</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>15</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>16</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -9758,572 +9758,572 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="F190" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11526,312 +11526,312 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="inlineStr">
+      <c r="D214" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>1</v>
-      </c>
-      <c r="E215" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>2</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>18</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>3</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>18</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>4</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>18</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>5</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
+      <c r="I221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="I222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>8</v>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
+      <c r="I224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>18</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>9</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>18</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>10</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>18</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>11</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12566,156 +12566,156 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>19</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G237" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
